--- a/Ozurgeti_streets_JustConcat.xlsx
+++ b/Ozurgeti_streets_JustConcat.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>en_street</t>
+          <t>St_Full_Name</t>
         </is>
       </c>
     </row>
